--- a/Coleta centro2.xlsx
+++ b/Coleta centro2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdlfloripa-my.sharepoint.com/personal/zeladoria_cdlflorianopolis_org_br/Documents/Documentos/Rodrigo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdlfloripa-my.sharepoint.com/personal/zeladoria_cdlflorianopolis_org_br/Documents/Downloads/Coleta centro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B408B9E2-D347-4DE9-99E1-3336164F3ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{B408B9E2-D347-4DE9-99E1-3336164F3ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE4D35B-52B4-4CBE-A52D-C55A93126800}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{BC1067C3-107E-4691-8585-F610FEB5DCFB}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <tableColumn id="3" xr3:uid="{D8BE94A2-7A7D-41A0-AA64-6D3B51BC51D7}" name="Coleta PM"/>
     <tableColumn id="4" xr3:uid="{43FE5E8E-A49A-43C2-9F7A-7F1AC67FDE92}" name="Total de Sacos"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1CCD5-189D-4012-A61F-3DD8F942C59F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
